--- a/data/figure_4/kosaka 1980.xlsx
+++ b/data/figure_4/kosaka 1980.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/repositories/AIS-geometry-and-excitability/data/AIS vs soma diameter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainbrette/PycharmProjects/AIS-geometry-and-excitability-2019/data/figure_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CA40A-97D1-B949-972C-C8F03FFAC10B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A0F751-591F-E44E-9AB0-BF4E1828FB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="8740" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="2660" windowWidth="49380" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kosaka 1980" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Max AIS diam</t>
-  </si>
-  <si>
-    <t>Min AIS diam</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mean</t>
   </si>
@@ -43,14 +36,24 @@
     <t>STD</t>
   </si>
   <si>
-    <t>AIS length</t>
+    <t>Data digitized from: Kosaka T. 1980. The axon initial segment as a synaptic site: Ultrastructure and synaptology of the initial segment of the pyramidal cell in the rat hippocampus (CA3 region). 
+J Neurocytol 9:861–882</t>
+  </si>
+  <si>
+    <t>Min AIS diameter (um)</t>
+  </si>
+  <si>
+    <t>Max AIS diameter (um)</t>
+  </si>
+  <si>
+    <t>AIS length (um)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +184,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -527,9 +538,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,172 +897,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>1.5</v>
-      </c>
-      <c r="C2">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>0.9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>45</v>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>0.8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>0.8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
+        <v>0.9</v>
+      </c>
+      <c r="C6">
+        <v>1.7</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>1.5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>1.6</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
+        <v>1.3</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.5</v>
       </c>
+      <c r="C12">
+        <v>1.8</v>
+      </c>
       <c r="D12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <f>AVERAGE(B2:B13)</f>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <f>AVERAGE(B5:B16)</f>
         <v>1.2416666666666669</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:D15" si="0">AVERAGE(C2:C13)</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:D18" si="0">AVERAGE(C5:C16)</f>
+        <v>1.7571428571428573</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <f>_xlfn.STDEV.S(B2:B13)</f>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <f>_xlfn.STDEV.S(B5:B16)</f>
         <v>0.38247598458972315</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:D16" si="1">_xlfn.STDEV.S(C2:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:D19" si="1">_xlfn.STDEV.S(C5:C16)</f>
+        <v>0.18126539343499309</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>16.62418829187267</v>
       </c>
